--- a/data/therblig_process_time.xlsx
+++ b/data/therblig_process_time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29B496F-8EF7-44B4-9344-A87D18A1334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD432815-6FCD-4A88-8760-A8B540C9BFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Therblig</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,10 @@
   </si>
   <si>
     <t>END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M30B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,7 +585,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,7 +599,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="1">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,7 +613,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>57.000000000000007</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,7 +627,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="1">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,7 +641,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>66</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,7 +655,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="1">
-        <v>70</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,7 +669,7 @@
         <v>71</v>
       </c>
       <c r="D9" s="1">
-        <v>73</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,7 +683,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="1">
-        <v>77</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -693,7 +697,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>80</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,7 +711,7 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>83</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -721,7 +725,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>87</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -735,7 +739,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="1">
-        <v>90</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,7 +753,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="1">
-        <v>94</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -763,7 +767,7 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>97</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -791,7 +795,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -805,7 +809,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="1">
-        <v>47</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +823,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="1">
-        <v>57.000000000000007</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -833,7 +837,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>65</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -847,7 +851,7 @@
         <v>74</v>
       </c>
       <c r="D22" s="1">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -861,7 +865,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,7 +879,7 @@
         <v>88</v>
       </c>
       <c r="D24" s="1">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,7 +893,7 @@
         <v>94</v>
       </c>
       <c r="D25" s="1">
-        <v>96</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,7 +907,7 @@
         <v>100</v>
       </c>
       <c r="D26" s="1">
-        <v>102</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,7 +921,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="1">
-        <v>107</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,7 +935,7 @@
         <v>111</v>
       </c>
       <c r="D28" s="1">
-        <v>113</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -945,7 +949,7 @@
         <v>117</v>
       </c>
       <c r="D29" s="1">
-        <v>119</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -959,7 +963,7 @@
         <v>122</v>
       </c>
       <c r="D30" s="1">
-        <v>124</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -973,7 +977,7 @@
         <v>128</v>
       </c>
       <c r="D31" s="1">
-        <v>130</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1001,7 +1005,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1015,7 +1019,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="1">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,7 +1033,7 @@
         <v>58.999999999999993</v>
       </c>
       <c r="D35" s="1">
-        <v>61</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,7 +1047,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="1">
-        <v>70</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1057,7 +1061,7 @@
         <v>77</v>
       </c>
       <c r="D37" s="1">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,7 +1075,7 @@
         <v>85</v>
       </c>
       <c r="D38" s="1">
-        <v>87</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1085,7 +1089,7 @@
         <v>92</v>
       </c>
       <c r="D39" s="1">
-        <v>94</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1099,7 +1103,7 @@
         <v>98</v>
       </c>
       <c r="D40" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1113,7 +1117,7 @@
         <v>105</v>
       </c>
       <c r="D41" s="1">
-        <v>107</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1127,7 +1131,7 @@
         <v>112.00000000000001</v>
       </c>
       <c r="D42" s="1">
-        <v>114.00000000000001</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,7 +1145,7 @@
         <v>117.99999999999999</v>
       </c>
       <c r="D43" s="1">
-        <v>119.99999999999999</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1155,7 +1159,7 @@
         <v>123.00000000000001</v>
       </c>
       <c r="D44" s="1">
-        <v>125.00000000000001</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1169,90 +1173,104 @@
         <v>128</v>
       </c>
       <c r="D45" s="1">
-        <v>130</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="1">
-        <v>10</v>
-      </c>
-      <c r="C46" s="1">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>133</v>
+      </c>
+      <c r="C46">
+        <v>133</v>
       </c>
       <c r="D46" s="1">
-        <v>29.999999999999996</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1">
         <v>10</v>
       </c>
       <c r="C47" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1">
-        <v>29.999999999999996</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
         <v>10</v>
       </c>
       <c r="C48" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1">
-        <v>29.999999999999996</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1">
         <v>10</v>
       </c>
       <c r="C49" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
-        <v>29.999999999999996</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
         <v>10</v>
       </c>
       <c r="C50" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>29.999999999999996</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1">
+        <v>10</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="1">
         <v>0</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>0</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D52" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/therblig_process_time.xlsx
+++ b/data/therblig_process_time.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD432815-6FCD-4A88-8760-A8B540C9BFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F44A6E-A883-4113-AE76-114DA77C2E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18150" yWindow="10200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -535,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -544,6 +553,7 @@
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,7 +581,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -585,7 +595,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -599,7 +609,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="1">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -613,7 +623,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -627,7 +637,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="1">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,7 +651,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="1">
-        <v>133</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,7 +665,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="1">
-        <v>156</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,7 +679,7 @@
         <v>71</v>
       </c>
       <c r="D9" s="1">
-        <v>178</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,7 +693,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -697,7 +707,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="1">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,7 +721,7 @@
         <v>81</v>
       </c>
       <c r="D12" s="1">
-        <v>244</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,7 +735,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="1">
-        <v>267</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,7 +749,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="1">
-        <v>289</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,7 +763,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="1">
-        <v>311</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,7 +777,7 @@
         <v>95</v>
       </c>
       <c r="D16" s="1">
-        <v>333</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -781,7 +791,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -795,7 +805,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="1">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -809,7 +819,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="1">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -823,7 +833,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="1">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -837,7 +847,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="1">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,7 +861,7 @@
         <v>74</v>
       </c>
       <c r="D22" s="1">
-        <v>133</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -865,7 +875,7 @@
         <v>82</v>
       </c>
       <c r="D23" s="1">
-        <v>156</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -879,7 +889,7 @@
         <v>88</v>
       </c>
       <c r="D24" s="1">
-        <v>178</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -893,7 +903,7 @@
         <v>94</v>
       </c>
       <c r="D25" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -907,7 +917,7 @@
         <v>100</v>
       </c>
       <c r="D26" s="1">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -921,7 +931,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="1">
-        <v>244</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,7 +945,7 @@
         <v>111</v>
       </c>
       <c r="D28" s="1">
-        <v>267</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -949,7 +959,7 @@
         <v>117</v>
       </c>
       <c r="D29" s="1">
-        <v>289</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,7 +973,7 @@
         <v>122</v>
       </c>
       <c r="D30" s="1">
-        <v>311</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,7 +987,7 @@
         <v>128</v>
       </c>
       <c r="D31" s="1">
-        <v>333</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -991,7 +1001,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="1">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1005,7 +1015,7 @@
         <v>40</v>
       </c>
       <c r="D33" s="1">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1019,7 +1029,7 @@
         <v>50</v>
       </c>
       <c r="D34" s="1">
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +1043,7 @@
         <v>58.999999999999993</v>
       </c>
       <c r="D35" s="1">
-        <v>89</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,7 +1057,7 @@
         <v>68</v>
       </c>
       <c r="D36" s="1">
-        <v>111</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1061,7 +1071,7 @@
         <v>77</v>
       </c>
       <c r="D37" s="1">
-        <v>133</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,7 +1085,7 @@
         <v>85</v>
       </c>
       <c r="D38" s="1">
-        <v>156</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1089,7 +1099,7 @@
         <v>92</v>
       </c>
       <c r="D39" s="1">
-        <v>178</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1103,7 +1113,7 @@
         <v>98</v>
       </c>
       <c r="D40" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,7 +1127,7 @@
         <v>105</v>
       </c>
       <c r="D41" s="1">
-        <v>222</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1131,7 +1141,7 @@
         <v>112.00000000000001</v>
       </c>
       <c r="D42" s="1">
-        <v>244</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1145,7 +1155,7 @@
         <v>117.99999999999999</v>
       </c>
       <c r="D43" s="1">
-        <v>267</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1159,7 +1169,7 @@
         <v>123.00000000000001</v>
       </c>
       <c r="D44" s="1">
-        <v>289</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1173,7 +1183,7 @@
         <v>128</v>
       </c>
       <c r="D45" s="1">
-        <v>311</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1187,7 +1197,7 @@
         <v>133</v>
       </c>
       <c r="D46" s="1">
-        <v>333</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/therblig_process_time.xlsx
+++ b/data/therblig_process_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F44A6E-A883-4113-AE76-114DA77C2E9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00A3B3-E525-4DC2-AEC0-20375DA208F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18150" yWindow="10200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Therblig</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,53 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R2A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R4A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R6A</t>
-  </si>
-  <si>
-    <t>R8A</t>
-  </si>
-  <si>
-    <t>R10A</t>
-  </si>
-  <si>
-    <t>R12A</t>
-  </si>
-  <si>
-    <t>R14A</t>
-  </si>
-  <si>
-    <t>R16A</t>
-  </si>
-  <si>
-    <t>R18A</t>
-  </si>
-  <si>
-    <t>R20A</t>
-  </si>
-  <si>
-    <t>R22A</t>
-  </si>
-  <si>
-    <t>R24A</t>
-  </si>
-  <si>
-    <t>R26A</t>
-  </si>
-  <si>
-    <t>R28A</t>
-  </si>
-  <si>
-    <t>R30A</t>
-  </si>
-  <si>
     <t>R2B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,6 +170,68 @@
   <si>
     <t>M30B</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R35B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R40B</t>
+  </si>
+  <si>
+    <t>R45B</t>
+  </si>
+  <si>
+    <t>R50B</t>
+  </si>
+  <si>
+    <t>R55B</t>
+  </si>
+  <si>
+    <t>R60B</t>
+  </si>
+  <si>
+    <t>R65B</t>
+  </si>
+  <si>
+    <t>R70B</t>
+  </si>
+  <si>
+    <t>R75B</t>
+  </si>
+  <si>
+    <t>R80B</t>
+  </si>
+  <si>
+    <t>M35B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M40B</t>
+  </si>
+  <si>
+    <t>M45B</t>
+  </si>
+  <si>
+    <t>M50B</t>
+  </si>
+  <si>
+    <t>M55B</t>
+  </si>
+  <si>
+    <t>M60B</t>
+  </si>
+  <si>
+    <t>M65B</t>
+  </si>
+  <si>
+    <t>M70B</t>
+  </si>
+  <si>
+    <t>M75B</t>
+  </si>
+  <si>
+    <t>M80B</t>
   </si>
 </sst>
 </file>
@@ -542,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,14 +589,14 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -595,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -609,7 +624,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="1">
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,7 +638,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,13 +646,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>56</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,13 +660,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>67</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -659,13 +674,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="D8" s="1">
-        <v>78</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -673,13 +688,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>89</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,13 +702,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C10">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -701,13 +716,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1">
-        <v>111</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,13 +730,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C12">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1">
-        <v>122</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -729,13 +744,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C13">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D13" s="1">
-        <v>134</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -743,13 +758,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C14">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>145</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -757,13 +772,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C15">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1">
-        <v>156</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -771,419 +786,419 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C16">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1">
-        <v>167</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="D17" s="1">
-        <v>11</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1">
-        <v>22</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B19">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="D19" s="1">
-        <v>34</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="D20" s="1">
-        <v>45</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B21">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="C21">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="D21" s="1">
-        <v>56</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B22">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="C22">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="D22" s="1">
-        <v>67</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="C23">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="D23" s="1">
-        <v>78</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="C24">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="D24" s="1">
-        <v>89</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="C25">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="D25" s="1">
-        <v>100</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B26">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="C26">
-        <v>100</v>
+        <v>269</v>
       </c>
       <c r="D26" s="1">
-        <v>111</v>
+        <v>888</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>105</v>
-      </c>
-      <c r="C27">
-        <v>105</v>
+        <v>19</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>122</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D28" s="1">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C29">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1">
-        <v>145</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>58.999999999999993</v>
       </c>
       <c r="C30">
-        <v>122</v>
+        <v>58.999999999999993</v>
       </c>
       <c r="D30" s="1">
-        <v>156</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="C31">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1">
-        <v>167</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="1">
-        <v>20</v>
-      </c>
-      <c r="C32" s="1">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B32">
+        <v>77</v>
+      </c>
+      <c r="C32">
+        <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>11</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="D33" s="1">
-        <v>22</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C34">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1">
-        <v>34</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>58.999999999999993</v>
+        <v>98</v>
       </c>
       <c r="C35">
-        <v>58.999999999999993</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1">
-        <v>45</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="C36">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1">
-        <v>56</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>77</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="C37">
-        <v>77</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="D37" s="1">
-        <v>67</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>85</v>
+        <v>117.99999999999999</v>
       </c>
       <c r="C38">
-        <v>85</v>
+        <v>117.99999999999999</v>
       </c>
       <c r="D38" s="1">
-        <v>78</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>92</v>
+        <v>123.00000000000001</v>
       </c>
       <c r="C39">
-        <v>92</v>
+        <v>123.00000000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>89</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="C40">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1">
-        <v>100</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C41">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="D41" s="1">
-        <v>111</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
-        <v>112.00000000000001</v>
+        <v>145</v>
       </c>
       <c r="C42">
-        <v>112.00000000000001</v>
+        <v>145</v>
       </c>
       <c r="D42" s="1">
-        <v>122</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>117.99999999999999</v>
+        <v>156</v>
       </c>
       <c r="C43">
-        <v>117.99999999999999</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>134</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>123.00000000000001</v>
+        <v>168</v>
       </c>
       <c r="C44">
-        <v>123.00000000000001</v>
+        <v>168</v>
       </c>
       <c r="D44" s="1">
-        <v>145</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="C45">
-        <v>128</v>
+        <v>180</v>
       </c>
       <c r="D45" s="1">
-        <v>156</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1191,101 +1206,172 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="C46">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="D46" s="1">
-        <v>167</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="1">
-        <v>10</v>
-      </c>
-      <c r="C47" s="1">
-        <v>10</v>
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>204</v>
+      </c>
+      <c r="C47">
+        <v>204</v>
       </c>
       <c r="D47" s="1">
-        <v>22</v>
+        <v>666</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="1">
-        <v>10</v>
-      </c>
-      <c r="C48" s="1">
-        <v>10</v>
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>216</v>
+      </c>
+      <c r="C48">
+        <v>216</v>
       </c>
       <c r="D48" s="1">
-        <v>22</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="1">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>228</v>
+      </c>
+      <c r="C49">
+        <v>228</v>
       </c>
       <c r="D49" s="1">
-        <v>22</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="1">
-        <v>10</v>
-      </c>
-      <c r="C50" s="1">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>240</v>
+      </c>
+      <c r="C50">
+        <v>240</v>
       </c>
       <c r="D50" s="1">
-        <v>22</v>
+        <v>834</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1">
-        <v>10</v>
-      </c>
-      <c r="C51" s="1">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>252</v>
+      </c>
+      <c r="C51">
+        <v>252</v>
       </c>
       <c r="D51" s="1">
-        <v>22</v>
+        <v>888</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B52" s="1">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="1">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="1">
+        <v>20</v>
+      </c>
+      <c r="C54" s="1">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="1">
+        <v>20</v>
+      </c>
+      <c r="C55" s="1">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="1">
+        <v>20</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="1">
         <v>0</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C57" s="1">
         <v>0</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D57" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/therblig_process_time.xlsx
+++ b/data/therblig_process_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\Final\HRC_taskalloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00A3B3-E525-4DC2-AEC0-20375DA208F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA74254-798F-4590-92DD-C8AABF83BAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,7 +624,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="1">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>90</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>112</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>134</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="1">
-        <v>156</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>178</v>
+        <v>445</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>94</v>
       </c>
       <c r="D10" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="1">
-        <v>222</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="1">
-        <v>244</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>111</v>
       </c>
       <c r="D13" s="1">
-        <v>268</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>290</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="1">
-        <v>312</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>128</v>
       </c>
       <c r="D16" s="1">
-        <v>334</v>
+        <v>835</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>142</v>
       </c>
       <c r="D17" s="1">
-        <v>388</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>156</v>
       </c>
       <c r="D18" s="1">
-        <v>444</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>170</v>
       </c>
       <c r="D19" s="1">
-        <v>498</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>184</v>
       </c>
       <c r="D20" s="1">
-        <v>556</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,7 +862,7 @@
         <v>198</v>
       </c>
       <c r="D21" s="1">
-        <v>612</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>212</v>
       </c>
       <c r="D22" s="1">
-        <v>666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,7 +890,7 @@
         <v>226</v>
       </c>
       <c r="D23" s="1">
-        <v>722</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>241</v>
       </c>
       <c r="D24" s="1">
-        <v>778</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>255</v>
       </c>
       <c r="D25" s="1">
-        <v>834</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>269</v>
       </c>
       <c r="D26" s="1">
-        <v>888</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="1">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="1">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>58.999999999999993</v>
       </c>
       <c r="D30" s="1">
-        <v>90</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="1">
-        <v>112</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>134</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>85</v>
       </c>
       <c r="D33" s="1">
-        <v>156</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
         <v>92</v>
       </c>
       <c r="D34" s="1">
-        <v>178</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,7 +1058,7 @@
         <v>98</v>
       </c>
       <c r="D35" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>105</v>
       </c>
       <c r="D36" s="1">
-        <v>222</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>112.00000000000001</v>
       </c>
       <c r="D37" s="1">
-        <v>244</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>117.99999999999999</v>
       </c>
       <c r="D38" s="1">
-        <v>268</v>
+        <v>670</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>123.00000000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>290</v>
+        <v>725</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>128</v>
       </c>
       <c r="D40" s="1">
-        <v>312</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>133</v>
       </c>
       <c r="D41" s="1">
-        <v>334</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1156,7 +1156,7 @@
         <v>145</v>
       </c>
       <c r="D42" s="1">
-        <v>388</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,7 +1170,7 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>444</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>168</v>
       </c>
       <c r="D44" s="1">
-        <v>498</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>180</v>
       </c>
       <c r="D45" s="1">
-        <v>556</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>192</v>
       </c>
       <c r="D46" s="1">
-        <v>612</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>204</v>
       </c>
       <c r="D47" s="1">
-        <v>666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>216</v>
       </c>
       <c r="D48" s="1">
-        <v>722</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>228</v>
       </c>
       <c r="D49" s="1">
-        <v>778</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>240</v>
       </c>
       <c r="D50" s="1">
-        <v>834</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>252</v>
       </c>
       <c r="D51" s="1">
-        <v>888</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/therblig_process_time.xlsx
+++ b/data/therblig_process_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\Final\HRC_taskalloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA74254-798F-4590-92DD-C8AABF83BAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E9679-AB75-4AAD-BA53-9318736890B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -569,6 +569,7 @@
     <col min="2" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,7 +597,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,7 +611,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,7 +625,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="1">
-        <v>170</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,7 +639,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>225</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,7 +653,7 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>280</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,7 +667,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>335</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,7 +681,7 @@
         <v>82</v>
       </c>
       <c r="D8" s="1">
-        <v>390</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,7 +695,7 @@
         <v>88</v>
       </c>
       <c r="D9" s="1">
-        <v>445</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,7 +709,7 @@
         <v>94</v>
       </c>
       <c r="D10" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,7 +723,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="1">
-        <v>555</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,7 +737,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="1">
-        <v>610</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,7 +751,7 @@
         <v>111</v>
       </c>
       <c r="D13" s="1">
-        <v>670</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +765,7 @@
         <v>117</v>
       </c>
       <c r="D14" s="1">
-        <v>725</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,7 +779,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="1">
-        <v>780</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,7 +793,7 @@
         <v>128</v>
       </c>
       <c r="D16" s="1">
-        <v>835</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,7 +807,7 @@
         <v>142</v>
       </c>
       <c r="D17" s="1">
-        <v>970</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,7 +821,7 @@
         <v>156</v>
       </c>
       <c r="D18" s="1">
-        <v>1110</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,7 +835,7 @@
         <v>170</v>
       </c>
       <c r="D19" s="1">
-        <v>1245</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,7 +849,7 @@
         <v>184</v>
       </c>
       <c r="D20" s="1">
-        <v>1390</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -862,7 +863,7 @@
         <v>198</v>
       </c>
       <c r="D21" s="1">
-        <v>1530</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -876,7 +877,7 @@
         <v>212</v>
       </c>
       <c r="D22" s="1">
-        <v>1665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -890,7 +891,7 @@
         <v>226</v>
       </c>
       <c r="D23" s="1">
-        <v>1805</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,7 +905,7 @@
         <v>241</v>
       </c>
       <c r="D24" s="1">
-        <v>1945</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,7 +919,7 @@
         <v>255</v>
       </c>
       <c r="D25" s="1">
-        <v>2085</v>
+        <v>833</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,7 +933,7 @@
         <v>269</v>
       </c>
       <c r="D26" s="1">
-        <v>2220</v>
+        <v>889</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,7 +961,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="1">
-        <v>110</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,7 +975,7 @@
         <v>50</v>
       </c>
       <c r="D29" s="1">
-        <v>170</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,7 +989,7 @@
         <v>58.999999999999993</v>
       </c>
       <c r="D30" s="1">
-        <v>225</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1003,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="1">
-        <v>280</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,7 +1017,7 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>335</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,7 +1031,7 @@
         <v>85</v>
       </c>
       <c r="D33" s="1">
-        <v>390</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,7 +1045,7 @@
         <v>92</v>
       </c>
       <c r="D34" s="1">
-        <v>445</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,7 +1059,7 @@
         <v>98</v>
       </c>
       <c r="D35" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,7 +1073,7 @@
         <v>105</v>
       </c>
       <c r="D36" s="1">
-        <v>555</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,7 +1087,7 @@
         <v>112.00000000000001</v>
       </c>
       <c r="D37" s="1">
-        <v>610</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1100,7 +1101,7 @@
         <v>117.99999999999999</v>
       </c>
       <c r="D38" s="1">
-        <v>670</v>
+        <v>267</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,7 +1115,7 @@
         <v>123.00000000000001</v>
       </c>
       <c r="D39" s="1">
-        <v>725</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,7 +1129,7 @@
         <v>128</v>
       </c>
       <c r="D40" s="1">
-        <v>780</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,7 +1143,7 @@
         <v>133</v>
       </c>
       <c r="D41" s="1">
-        <v>835</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1156,7 +1157,7 @@
         <v>145</v>
       </c>
       <c r="D42" s="1">
-        <v>970</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,7 +1171,7 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>1110</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,7 +1185,7 @@
         <v>168</v>
       </c>
       <c r="D44" s="1">
-        <v>1245</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,7 +1199,7 @@
         <v>180</v>
       </c>
       <c r="D45" s="1">
-        <v>1390</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1212,7 +1213,7 @@
         <v>192</v>
       </c>
       <c r="D46" s="1">
-        <v>1530</v>
+        <v>611</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1226,7 +1227,7 @@
         <v>204</v>
       </c>
       <c r="D47" s="1">
-        <v>1665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1241,7 @@
         <v>216</v>
       </c>
       <c r="D48" s="1">
-        <v>1805</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,7 +1255,7 @@
         <v>228</v>
       </c>
       <c r="D49" s="1">
-        <v>1945</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,7 +1269,7 @@
         <v>240</v>
       </c>
       <c r="D50" s="1">
-        <v>2085</v>
+        <v>833</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,7 +1283,7 @@
         <v>252</v>
       </c>
       <c r="D51" s="1">
-        <v>2220</v>
+        <v>889</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/therblig_process_time.xlsx
+++ b/data/therblig_process_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\Final\HRC_taskalloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5E9679-AB75-4AAD-BA53-9318736890B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A118E80-E633-4623-984F-71E9E195420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,7 +597,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
         <v>63</v>
       </c>
       <c r="D6" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>94</v>
       </c>
       <c r="D10" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>100</v>
       </c>
       <c r="D11" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>122</v>
       </c>
       <c r="D15" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>128</v>
       </c>
       <c r="D16" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,7 +821,7 @@
         <v>156</v>
       </c>
       <c r="D18" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>198</v>
       </c>
       <c r="D21" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>226</v>
       </c>
       <c r="D23" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>255</v>
       </c>
       <c r="D25" s="1">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>77</v>
       </c>
       <c r="D32" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>98</v>
       </c>
       <c r="D35" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1073,7 +1073,7 @@
         <v>105</v>
       </c>
       <c r="D36" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1087,7 +1087,7 @@
         <v>112.00000000000001</v>
       </c>
       <c r="D37" s="1">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>128</v>
       </c>
       <c r="D40" s="1">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1143,7 +1143,7 @@
         <v>133</v>
       </c>
       <c r="D41" s="1">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>156</v>
       </c>
       <c r="D43" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>192</v>
       </c>
       <c r="D46" s="1">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>216</v>
       </c>
       <c r="D48" s="1">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>240</v>
       </c>
       <c r="D50" s="1">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/therblig_process_time.xlsx
+++ b/data/therblig_process_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\Final\HRC_taskalloc_w.TB_w.AR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A118E80-E633-4623-984F-71E9E195420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B283F13-263A-4384-8C6F-F657A833AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1333,13 +1333,13 @@
         <v>36</v>
       </c>
       <c r="B55" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C55" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D55" s="1">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,13 +1347,13 @@
         <v>37</v>
       </c>
       <c r="B56" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C56" s="1">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D56" s="1">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/therblig_process_time.xlsx
+++ b/data/therblig_process_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\Final\HRC_taskalloc_w.TB_w.AR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B283F13-263A-4384-8C6F-F657A833AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0814BA6-2C77-45BB-BDD0-F11FC68E9F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1333,13 +1333,13 @@
         <v>36</v>
       </c>
       <c r="B55" s="1">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C55" s="1">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D55" s="1">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,13 +1347,13 @@
         <v>37</v>
       </c>
       <c r="B56" s="1">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C56" s="1">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="D56" s="1">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
